--- a/ApolloQA/Data/RatingManual/GA/VA00063.IsAccidentPreventionFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00063.IsAccidentPreventionFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00063.IsAccidentPreventionFactors" sheetId="1" r:id="Rc5589a865c0546fd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00063.IsAccidentPreventionFactors" sheetId="1" r:id="R3f1773e982ae42b3"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,26 +12,12 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Accident Prevention</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Accident Prevention Factor</x:v>
+        <x:v>Base Rate Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>No</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>Yes</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>842.25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
